--- a/biology/Zoologie/Conus_kostini/Conus_kostini.xlsx
+++ b/biology/Zoologie/Conus_kostini/Conus_kostini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus kostini est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 60 mm et 100 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'île de Balut, dans le sud de Mindanao, aux Philippines.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus kostini a été décrite pour la première fois en 2012 par les malacologistes Robin Michael Filmer, Homère Alves Monteiro, Felix Lorenz et Armando Verdasca dans la publication intitulée « Acta Conchyliorum »[1],[2].
-Synonymes
-Conus (Embrikena) kostini Filmer, Monteiro, Lorenz &amp; Verdasca, 2012 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus kostini a été décrite pour la première fois en 2012 par les malacologistes Robin Michael Filmer, Homère Alves Monteiro, Felix Lorenz et Armando Verdasca dans la publication intitulée « Acta Conchyliorum »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_kostini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_kostini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Embrikena) kostini Filmer, Monteiro, Lorenz &amp; Verdasca, 2012 · appellation alternative
 Embrikena kostini (Filmer, Monteiro, Lorenz &amp; Verdasca, 2012) · non accepté</t>
         </is>
       </c>
